--- a/mock excel.xlsx
+++ b/mock excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fultons\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fultons\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>scratch bouts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>sex</t>
   </si>
@@ -371,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,158 +376,92 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/mock excel.xlsx
+++ b/mock excel.xlsx
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
-  <si>
-    <t>sex</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>drug</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>nalf</t>
   </si>
   <si>
@@ -48,6 +39,9 @@
   </si>
   <si>
     <t>fe</t>
+  </si>
+  <si>
+    <t>scratch bouts</t>
   </si>
 </sst>
 </file>
@@ -368,7 +362,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,90 +372,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/mock excel.xlsx
+++ b/mock excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>drug</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>scratch bouts</t>
+  </si>
+  <si>
+    <t>235,</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -370,7 +373,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -378,7 +381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>235</v>
       </c>
@@ -386,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>47</v>
       </c>
@@ -394,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>190</v>
       </c>
@@ -402,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>54</v>
       </c>
@@ -410,15 +413,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>132</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45</v>
       </c>
@@ -426,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -434,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -442,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -450,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>202</v>
       </c>
